--- a/stack/website/secondtour_website/website/upload/donees.xlsx
+++ b/stack/website/secondtour_website/website/upload/donees.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="creneau" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="candidat" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="professeur" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="salle" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="serie" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matiere" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="choix_matiere" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utilisateur" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="liste_matiere" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="token" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="horaire" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="creneau" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="candidat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="professeur" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="salle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="serie" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="matiere" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="choix_matiere" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="utilisateur" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="liste_matiere" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="horaire" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,16 +484,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>323</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>703</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,30 +516,30 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>703</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tue Mar 01 08:00:00 2022</t>
+          <t>Tue Mar 01 09:30:00 2022</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tue Mar 01 08:30:00 2022</t>
+          <t>Tue Mar 01 10:30:00 2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tue Mar 01 09:00:00 2022</t>
+          <t>Tue Mar 01 11:00:00 2022</t>
         </is>
       </c>
     </row>
@@ -549,30 +548,1214 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E5" t="n">
+        <v>297</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>93</v>
+      </c>
+      <c r="E6" t="n">
+        <v>303</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>84</v>
+      </c>
+      <c r="E7" t="n">
+        <v>294</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>98</v>
+      </c>
+      <c r="E8" t="n">
+        <v>308</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>80</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>97</v>
+      </c>
+      <c r="E9" t="n">
+        <v>307</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>87</v>
+      </c>
+      <c r="E10" t="n">
+        <v>297</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Tue Mar 01 08:30:00 2022</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Tue Mar 01 09:00:00 2022</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>82</v>
+      </c>
+      <c r="C11" t="n">
+        <v>49</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>298</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>83</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>87</v>
+      </c>
+      <c r="E12" t="n">
+        <v>297</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>84</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98</v>
+      </c>
+      <c r="E13" t="n">
+        <v>308</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>85</v>
+      </c>
+      <c r="C14" t="n">
+        <v>46</v>
+      </c>
+      <c r="D14" t="n">
+        <v>84</v>
+      </c>
+      <c r="E14" t="n">
+        <v>294</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>46</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94</v>
+      </c>
+      <c r="E15" t="n">
+        <v>304</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>87</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>98</v>
+      </c>
+      <c r="E16" t="n">
+        <v>308</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>43</v>
+      </c>
+      <c r="D17" t="n">
+        <v>88</v>
+      </c>
+      <c r="E17" t="n">
+        <v>298</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42</v>
+      </c>
+      <c r="D18" t="n">
+        <v>93</v>
+      </c>
+      <c r="E18" t="n">
+        <v>303</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42</v>
+      </c>
+      <c r="D19" t="n">
+        <v>83</v>
+      </c>
+      <c r="E19" t="n">
+        <v>293</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>91</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" t="n">
+        <v>98</v>
+      </c>
+      <c r="E20" t="n">
+        <v>308</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>87</v>
+      </c>
+      <c r="E21" t="n">
+        <v>297</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>36</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" t="n">
+        <v>310</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>94</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+      <c r="D23" t="n">
+        <v>89</v>
+      </c>
+      <c r="E23" t="n">
+        <v>299</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>95</v>
+      </c>
+      <c r="C24" t="n">
+        <v>38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>92</v>
+      </c>
+      <c r="E24" t="n">
+        <v>302</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38</v>
+      </c>
+      <c r="D25" t="n">
+        <v>81</v>
+      </c>
+      <c r="E25" t="n">
+        <v>291</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>97</v>
+      </c>
+      <c r="C26" t="n">
+        <v>39</v>
+      </c>
+      <c r="D26" t="n">
+        <v>85</v>
+      </c>
+      <c r="E26" t="n">
+        <v>295</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:40:00 2022</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:20:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>98</v>
+      </c>
+      <c r="C27" t="n">
+        <v>39</v>
+      </c>
+      <c r="D27" t="n">
+        <v>95</v>
+      </c>
+      <c r="E27" t="n">
+        <v>305</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:20:00 2022</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 12:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>99</v>
+      </c>
+      <c r="C28" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" t="n">
+        <v>99</v>
+      </c>
+      <c r="E28" t="n">
+        <v>309</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" t="n">
+        <v>90</v>
+      </c>
+      <c r="E29" t="n">
+        <v>300</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>101</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41</v>
+      </c>
+      <c r="D30" t="n">
+        <v>92</v>
+      </c>
+      <c r="E30" t="n">
+        <v>302</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>102</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>82</v>
+      </c>
+      <c r="E31" t="n">
+        <v>292</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>103</v>
+      </c>
+      <c r="C32" t="n">
+        <v>44</v>
+      </c>
+      <c r="D32" t="n">
+        <v>96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>306</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>104</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44</v>
+      </c>
+      <c r="D33" t="n">
+        <v>85</v>
+      </c>
+      <c r="E33" t="n">
+        <v>295</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>105</v>
+      </c>
+      <c r="C34" t="n">
+        <v>45</v>
+      </c>
+      <c r="D34" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" t="n">
+        <v>310</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>106</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>99</v>
+      </c>
+      <c r="E35" t="n">
+        <v>309</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>107</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48</v>
+      </c>
+      <c r="D36" t="n">
+        <v>90</v>
+      </c>
+      <c r="E36" t="n">
+        <v>300</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>108</v>
+      </c>
+      <c r="C37" t="n">
+        <v>48</v>
+      </c>
+      <c r="D37" t="n">
+        <v>89</v>
+      </c>
+      <c r="E37" t="n">
+        <v>299</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>109</v>
+      </c>
+      <c r="C38" t="n">
+        <v>53</v>
+      </c>
+      <c r="D38" t="n">
+        <v>99</v>
+      </c>
+      <c r="E38" t="n">
+        <v>309</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:30:00 2022</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:00:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>110</v>
+      </c>
+      <c r="C39" t="n">
+        <v>53</v>
+      </c>
+      <c r="D39" t="n">
+        <v>89</v>
+      </c>
+      <c r="E39" t="n">
+        <v>299</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:00:00 2022</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:30:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>111</v>
+      </c>
+      <c r="C40" t="n">
+        <v>55</v>
+      </c>
+      <c r="D40" t="n">
+        <v>96</v>
+      </c>
+      <c r="E40" t="n">
+        <v>306</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 08:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:10:00 2022</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 09:50:00 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>112</v>
+      </c>
+      <c r="C41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D41" t="n">
+        <v>86</v>
+      </c>
+      <c r="E41" t="n">
+        <v>296</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 10:30:00 2022</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:10:00 2022</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Tue Mar 01 11:50:00 2022</t>
         </is>
       </c>
     </row>
@@ -587,7 +1770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,27 +1781,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id_token</t>
+          <t>id_horaire</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>horaire_arr1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>token</t>
+          <t>horaire_dep1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>horaire_arr2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_dep2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_arr3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>horaire_dep3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>id_professeur</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>admin</t>
         </is>
       </c>
     </row>
@@ -627,23 +1825,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>louid.huogegrt@gmail.com</t>
+          <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15ac0753-b296-495d-b8d5-6deceb0654e7</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>179</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
@@ -651,23 +1866,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>252</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>qgzgezg@gmail.com</t>
+          <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7e288388-93af-47a5-a004-62adf49024cf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>180</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="4">
@@ -675,23 +1907,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>eqgegesg@gmail.com</t>
+          <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>c175bc87-f073-41e4-a6f1-4ced746ba962</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>181</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -699,248 +1948,778 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>254</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>255</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>256</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>257</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>258</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>259</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>fgegse@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7f6c22c4-5b09-4c8c-8763-4f4f4d8cc0d7</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_horaire</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>horaire_arr1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>horaire_dep1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>horaire_arr2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>horaire_dep2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>horaire_arr3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>horaire_dep3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>id_professeur</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>178</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B11" t="n">
+        <v>260</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Mon Jan 01 20:00:00 1900</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Tue Jan 02 08:00:00 1900</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Tue Jan 02 20:00:00 1900</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Wed Jan 03 08:00:00 1900</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Wed Jan 03 20:00:00 1900</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>179</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="I11" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>261</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Mon Jan 01 20:00:00 1900</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Tue Jan 02 08:00:00 1900</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Tue Jan 02 20:00:00 1900</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Wed Jan 03 08:00:00 1900</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Wed Jan 03 20:00:00 1900</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>180</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="I12" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>262</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Mon Jan 01 20:00:00 1900</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Tue Jan 02 08:00:00 1900</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Tue Jan 02 20:00:00 1900</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Wed Jan 03 08:00:00 1900</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Wed Jan 03 20:00:00 1900</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>181</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="I13" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>263</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Mon Jan 01 08:00:00 1900</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Mon Jan 01 20:00:00 1900</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Tue Jan 02 08:00:00 1900</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Tue Jan 02 20:00:00 1900</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Wed Jan 03 08:00:00 1900</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Wed Jan 03 20:00:00 1900</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>182</v>
+      <c r="I14" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>264</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>265</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>266</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>267</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>268</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>269</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>270</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>271</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>272</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon Jan 01 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tue Jan 02 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 08:00:00 1900</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Wed Jan 03 20:00:00 1900</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +2733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,20 +2778,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CDT1</t>
+          <t>Morel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>prenom</t>
+          <t>Adrienne</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1026,20 +2805,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CDT2</t>
+          <t>Gros</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Prénom</t>
+          <t>Claude</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>301</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1053,26 +2832,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ess</t>
+          <t>Turpin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>gesggss</t>
+          <t>Capucine</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1080,25 +2859,457 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bxbd</t>
+          <t>Pascal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>bxdbdx</t>
+          <t>Nicolas</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gosselin</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Richard</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Leduc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Capucine</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hamon</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Masson</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Augustin</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chartier</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Juliette</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Seguin</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Agathe</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>47</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Lacombe</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Gilbert</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Munoz</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Cécile</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>28</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>49</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Texier</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alexandrie</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>27</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Morel</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Simone</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>51</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Durand</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Aimé</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>52</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bourdon</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Emmanuelle</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>27</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>53</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Odette</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>54</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hardy</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hortense</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Vallet</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Pierre</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +3324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,20 +3359,20 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PROF1_1</t>
+          <t>Élodie</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>prenom</t>
+          <t>Perrier</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>202</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
@@ -1169,20 +3380,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROF1_2</t>
+          <t>Georges</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>prénom</t>
+          <t>Dumas</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -1190,20 +3401,20 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PROF2_1</t>
+          <t>Clémence</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>prénom</t>
+          <t>Giraud</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>203</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
@@ -1211,20 +3422,398 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PROF2_2</t>
+          <t>Lucy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>prenom</t>
+          <t>Louis</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>203</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>256</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Éléonore</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ramos</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>257</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Denis</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Leconte</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>258</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Frédérique</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Delattre</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>259</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Michaud</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>260</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Marthe</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lemaître</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>261</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Anouk</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Brunet</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>262</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Adèle</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Evrard</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>263</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Inès</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Le Gall</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>264</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cécile</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ribeiro</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>265</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Christophe</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Grondin</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>266</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thierry</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Grondin</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>267</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sylvie</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>268</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Stéphane</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Joubert</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>269</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Marguerite</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lagarde</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>270</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Paulette</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Diaz</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>271</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Guy</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Barthelemy</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>272</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Élise</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gilles</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>273</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Laure</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Carlier</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +3827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1263,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>202</v>
+        <v>291</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D204</t>
+          <t>D000</t>
         </is>
       </c>
     </row>
@@ -1276,11 +3865,284 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D205</t>
+          <t>D001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>293</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>294</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>295</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>296</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>D005</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>297</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>298</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D007</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>299</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D008</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>300</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D009</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>301</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>D010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>302</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D011</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>303</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D012</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>304</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D013</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>305</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D014</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>306</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D015</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>307</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D016</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>308</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D017</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>309</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D018</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>310</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D019</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>285</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D100</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>287</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D101</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>290</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D102</t>
         </is>
       </c>
     </row>
@@ -1295,7 +4157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,19 +4192,107 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Générale</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Technologique</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>STI2D</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Technologique</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STMG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1355,7 +4305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,19 +4365,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>701</v>
+        <v>81</v>
       </c>
       <c r="C2" t="n">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Français</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Français - STI2D</t>
+          <t>Francais - Mathématiques/SVT</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1437,7 +4387,7 @@
         <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
         <v>40</v>
@@ -1449,10 +4399,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>702</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1461,7 +4411,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Philosophie - STI2D</t>
+          <t>Philosophie - Mathématiques/SVT</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1483,34 +4433,618 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703</v>
+        <v>83</v>
       </c>
       <c r="C4" t="n">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mathématiques/Physique</t>
+          <t>Francais</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mathématiques/Physique - STI2D</t>
+          <t>Francais - STI2D</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
         <v>30</v>
       </c>
       <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Philosophie - STI2D</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>30</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Francais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Francais - SI/Physique</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Philosophie - SI/Physique</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>87</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Francais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Francais - STMG</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>88</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Philosophie - STMG</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>40</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Francais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Francais - SI/SVT</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Philosophie - SI/SVT</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mathématiques</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mathématiques - Mathématiques/SVT</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>92</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SVT</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SVT - Mathématiques/SVT</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2I2D</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2I2D - STI2D</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>60</v>
+      </c>
+      <c r="G14" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>94</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique - STI2D</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SI - SI/Physique</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" t="n">
+        <v>80</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40</v>
+      </c>
+      <c r="J16" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Physique - SI/Physique</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>97</v>
+      </c>
+      <c r="C18" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SGN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SGN - STMG</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>98</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mathématiques/Physique - STMG</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>40</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>28</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SI - SI/SVT</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>60</v>
+      </c>
+      <c r="G20" t="n">
+        <v>80</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40</v>
+      </c>
+      <c r="J20" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SVT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SVT - SI/SVT</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="n">
+        <v>40</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1523,7 +5057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>703</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>701</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -1575,16 +5109,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>703</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>701</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -1592,16 +5126,305 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>701</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>703</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>93</v>
+      </c>
+      <c r="E8" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>98</v>
+      </c>
+      <c r="E9" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44</v>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47</v>
+      </c>
+      <c r="D13" t="n">
+        <v>87</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90</v>
+      </c>
+      <c r="E14" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>49</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49</v>
+      </c>
+      <c r="D15" t="n">
+        <v>87</v>
+      </c>
+      <c r="E15" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>98</v>
+      </c>
+      <c r="E16" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>51</v>
+      </c>
+      <c r="C17" t="n">
+        <v>51</v>
+      </c>
+      <c r="D17" t="n">
+        <v>93</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>52</v>
+      </c>
+      <c r="C18" t="n">
+        <v>52</v>
+      </c>
+      <c r="D18" t="n">
+        <v>98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>53</v>
+      </c>
+      <c r="C19" t="n">
+        <v>53</v>
+      </c>
+      <c r="D19" t="n">
+        <v>99</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>54</v>
+      </c>
+      <c r="C20" t="n">
+        <v>54</v>
+      </c>
+      <c r="D20" t="n">
+        <v>94</v>
+      </c>
+      <c r="E20" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55</v>
+      </c>
+      <c r="C21" t="n">
+        <v>55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +5438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1655,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1671,30 +5494,6 @@
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>79</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>louid.huort@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$p5k2$3e8$bYtptkQW$/Iis3bD8RmFin46EOD/70BQqSV8xXjOt</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>181</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1707,7 +5506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1737,13 +5536,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="D2" t="n">
-        <v>703</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1751,13 +5550,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="D3" t="n">
-        <v>703</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1765,13 +5564,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="D4" t="n">
-        <v>703</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1779,13 +5578,265 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="D5" t="n">
-        <v>703</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>256</v>
+      </c>
+      <c r="D6" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>257</v>
+      </c>
+      <c r="D7" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>258</v>
+      </c>
+      <c r="D8" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>259</v>
+      </c>
+      <c r="D9" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>260</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79</v>
+      </c>
+      <c r="C11" t="n">
+        <v>261</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>80</v>
+      </c>
+      <c r="C12" t="n">
+        <v>262</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>81</v>
+      </c>
+      <c r="C13" t="n">
+        <v>263</v>
+      </c>
+      <c r="D13" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>264</v>
+      </c>
+      <c r="D14" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>84</v>
+      </c>
+      <c r="C15" t="n">
+        <v>265</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>85</v>
+      </c>
+      <c r="C16" t="n">
+        <v>266</v>
+      </c>
+      <c r="D16" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86</v>
+      </c>
+      <c r="C17" t="n">
+        <v>267</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>87</v>
+      </c>
+      <c r="C18" t="n">
+        <v>268</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89</v>
+      </c>
+      <c r="C19" t="n">
+        <v>269</v>
+      </c>
+      <c r="D19" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" t="n">
+        <v>270</v>
+      </c>
+      <c r="D20" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91</v>
+      </c>
+      <c r="C21" t="n">
+        <v>271</v>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83</v>
+      </c>
+      <c r="C22" t="n">
+        <v>272</v>
+      </c>
+      <c r="D22" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>88</v>
+      </c>
+      <c r="C23" t="n">
+        <v>273</v>
+      </c>
+      <c r="D23" t="n">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
